--- a/public/import_template.xlsx
+++ b/public/import_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>serial_number</t>
   </si>
@@ -68,9 +68,6 @@
     <t>a4</t>
   </si>
   <si>
-    <t>a5</t>
-  </si>
-  <si>
     <t>a6</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>b4</t>
   </si>
   <si>
-    <t>b5</t>
-  </si>
-  <si>
     <t>b6</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>c4</t>
   </si>
   <si>
-    <t>c5</t>
-  </si>
-  <si>
     <t>c6</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
   </si>
   <si>
     <t>e4</t>
-  </si>
-  <si>
-    <t>e5</t>
   </si>
   <si>
     <t>e6</t>
@@ -308,7 +296,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -379,157 +367,157 @@
       <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="F4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="K6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/import_template.xlsx
+++ b/public/import_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>serial_number</t>
   </si>
@@ -56,7 +56,7 @@
     <t>aaa-12345</t>
   </si>
   <si>
-    <t>a1</t>
+    <t>a2</t>
   </si>
   <si>
     <t>b1</t>
@@ -92,6 +92,9 @@
     <t>Abcd-2222</t>
   </si>
   <si>
+    <t>c2</t>
+  </si>
+  <si>
     <t>b2</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
     <t>Abcd-3333</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
     <t>c4</t>
   </si>
   <si>
@@ -149,9 +149,6 @@
     <t>Abcd-4444</t>
   </si>
   <si>
-    <t>d1</t>
-  </si>
-  <si>
     <t>d2</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>d9</t>
   </si>
   <si>
-    <t>e1</t>
+    <t>abcdefg</t>
   </si>
   <si>
     <t>e2</t>
@@ -296,7 +293,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -397,45 +394,45 @@
         <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>36</v>
@@ -470,51 +467,54 @@
         <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>21</v>

--- a/public/import_template.xlsx
+++ b/public/import_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>serial_number</t>
   </si>
@@ -23,6 +23,9 @@
     <t>device_name</t>
   </si>
   <si>
+    <t>pool_id</t>
+  </si>
+  <si>
     <t>manufacturer</t>
   </si>
   <si>
@@ -59,16 +62,16 @@
     <t>a2</t>
   </si>
   <si>
+    <t>co_hallo_7949</t>
+  </si>
+  <si>
     <t>b1</t>
   </si>
   <si>
     <t>a3</t>
   </si>
   <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a6</t>
+    <t>hallo@hallo.at, hallo1@hallo.at</t>
   </si>
   <si>
     <t>a7</t>
@@ -83,7 +86,7 @@
     <t>good</t>
   </si>
   <si>
-    <t>asdfkasjdflasjdfkjsadlökfjkölsadjfk asdfhaskdhf jasdhfjk hsadjfhlaskdf</t>
+    <t>aa</t>
   </si>
   <si>
     <t>sadf</t>
@@ -101,10 +104,7 @@
     <t>b3</t>
   </si>
   <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b6</t>
+    <t>hallo@hallo.at, hallo2@hallo.at</t>
   </si>
   <si>
     <t>b7</t>
@@ -119,13 +119,16 @@
     <t>best</t>
   </si>
   <si>
+    <t>bb</t>
+  </si>
+  <si>
     <t>asf</t>
   </si>
   <si>
     <t>Abcd-3333</t>
   </si>
   <si>
-    <t>c4</t>
+    <t>co_hallo1_9778</t>
   </si>
   <si>
     <t>c6</t>
@@ -143,6 +146,9 @@
     <t>ok</t>
   </si>
   <si>
+    <t>cc</t>
+  </si>
+  <si>
     <t>asdf</t>
   </si>
   <si>
@@ -155,9 +161,6 @@
     <t>d3</t>
   </si>
   <si>
-    <t>d4</t>
-  </si>
-  <si>
     <t>d6</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>d9</t>
   </si>
   <si>
+    <t>dd</t>
+  </si>
+  <si>
     <t>abcdefg</t>
   </si>
   <si>
@@ -179,9 +185,6 @@
     <t>e3</t>
   </si>
   <si>
-    <t>e4</t>
-  </si>
-  <si>
     <t>e6</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
   </si>
   <si>
     <t>e9</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
 </sst>
 </file>
@@ -293,16 +299,14 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="15.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5748987854251"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4412955465587"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.5748987854251"/>
   </cols>
@@ -321,83 +325,83 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>27</v>
@@ -423,101 +427,110 @@
       <c r="K3" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="M3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/public/import_template.xlsx
+++ b/public/import_template.xlsx
@@ -423,7 +423,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>Whats unique to your device or company?</t>
+          <t>Whats unique to your device or company? (max. 3 entries; start each entry with a line break and a **)</t>
         </r>
         <r>
           <rPr>
@@ -453,9 +453,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-- Water proof
-- The worlds smallest oscilloscope
-- Very high accuracy...</t>
+** Water proof
+** The worlds smallest oscilloscope
+** Very high accuracy...</t>
         </r>
       </text>
     </comment>
@@ -469,9 +469,17 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>For example: 
-- After Sales Service included
-- Free software updates</t>
+          <t xml:space="preserve">For example: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>After Sales Service included, Free software updates</t>
         </r>
       </text>
     </comment>
@@ -789,11 +797,6 @@
     <t>cmc_356_datasheet.pdf</t>
   </si>
   <si>
-    <t>- High current amplitudes for 5 A relay testing
-- High accuracy and versatility for testing static and numerical relays of all types
-- Integrated network for testing IEC 61850 IEDs</t>
-  </si>
-  <si>
     <t>October 2015</t>
   </si>
   <si>
@@ -858,13 +861,18 @@
   </si>
   <si>
     <t>Year of manufacture</t>
+  </si>
+  <si>
+    <t>** High current amplitudes for 5 A relay testing
+** High accuracy and versatility for testing static and numerical relays of all types
+** Integrated network for testing IEC 61850 IEDs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -898,6 +906,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1066,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1083,25 +1104,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1110,9 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1134,7 +1137,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1601,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,1682 +1653,1682 @@
     <col min="25" max="1037" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="F1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="G2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="32">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="16" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="15">
-        <v>15000</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="R2" s="32">
+        <v>2014</v>
+      </c>
+      <c r="S2" s="32">
+        <v>45600</v>
+      </c>
+      <c r="T2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="15">
-        <v>2014</v>
-      </c>
-      <c r="S2" s="15">
-        <v>45600</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="15">
+      <c r="U2" s="32">
         <v>450</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="32">
         <v>150</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="32">
         <v>390</v>
       </c>
-      <c r="X2" s="33">
+      <c r="X2" s="34">
         <v>16.8</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="Q6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="Q10" s="15"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="Q22" s="15"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="Q42" s="15"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="Q46" s="15"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="Q47" s="15"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="Q48" s="15"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="Q48" s="12"/>
     </row>
     <row r="49" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="Q49" s="15"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="Q50" s="15"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="Q51" s="15"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="Q52" s="15"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="Q52" s="12"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="Q53" s="15"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="Q54" s="15"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="Q55" s="15"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="Q56" s="15"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="Q57" s="12"/>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="Q58" s="15"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="Q59" s="15"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="Q59" s="12"/>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="Q60" s="15"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="Q61" s="15"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="Q62" s="15"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="Q64" s="15"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="Q65" s="15"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="67" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="Q67" s="15"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="Q67" s="12"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="Q68" s="15"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="Q69" s="15"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="Q69" s="12"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="Q70" s="15"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="Q71" s="15"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="Q72" s="15"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="Q72" s="12"/>
     </row>
     <row r="73" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="Q73" s="15"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="Q74" s="15"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="Q74" s="12"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="Q75" s="15"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="Q75" s="12"/>
     </row>
     <row r="76" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="Q76" s="15"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="Q77" s="15"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="Q78" s="15"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="Q79" s="15"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="Q79" s="12"/>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="Q80" s="15"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="Q80" s="12"/>
     </row>
     <row r="81" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="Q81" s="15"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="Q81" s="12"/>
     </row>
     <row r="82" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="Q82" s="15"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="Q82" s="12"/>
     </row>
     <row r="83" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="Q83" s="15"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="Q83" s="12"/>
     </row>
     <row r="84" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="Q84" s="15"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="Q84" s="12"/>
     </row>
     <row r="85" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="Q85" s="15"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="Q85" s="12"/>
     </row>
     <row r="86" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="Q86" s="15"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="Q86" s="12"/>
     </row>
     <row r="87" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="Q87" s="15"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="Q87" s="12"/>
     </row>
     <row r="88" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="Q88" s="15"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="Q88" s="12"/>
     </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="Q89" s="15"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="Q89" s="12"/>
     </row>
     <row r="90" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="Q90" s="15"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="Q90" s="12"/>
     </row>
     <row r="91" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="Q91" s="15"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="Q91" s="12"/>
     </row>
     <row r="92" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="Q92" s="15"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="Q92" s="12"/>
     </row>
     <row r="93" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="Q93" s="15"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="Q93" s="12"/>
     </row>
     <row r="94" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="Q94" s="15"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="Q94" s="12"/>
     </row>
     <row r="95" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="Q95" s="15"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="Q95" s="12"/>
     </row>
     <row r="96" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="Q96" s="15"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="Q96" s="12"/>
     </row>
     <row r="97" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="Q97" s="15"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="Q97" s="12"/>
     </row>
     <row r="98" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="Q98" s="15"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="Q98" s="12"/>
     </row>
     <row r="99" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="Q99" s="15"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="Q99" s="12"/>
     </row>
     <row r="100" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="Q100" s="15"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="Q100" s="12"/>
     </row>
     <row r="101" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="Q101" s="15"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="Q101" s="12"/>
     </row>
     <row r="102" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="Q102" s="15"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="Q102" s="12"/>
     </row>
     <row r="103" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="Q103" s="15"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="Q103" s="12"/>
     </row>
     <row r="104" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="Q104" s="15"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="Q104" s="12"/>
     </row>
     <row r="105" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="Q105" s="15"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="Q105" s="12"/>
     </row>
     <row r="106" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="Q106" s="15"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="Q106" s="12"/>
     </row>
     <row r="107" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="Q107" s="15"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="Q107" s="12"/>
     </row>
     <row r="108" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="Q108" s="15"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="Q108" s="12"/>
     </row>
     <row r="109" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="Q109" s="15"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="Q109" s="12"/>
     </row>
     <row r="110" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="Q110" s="15"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="Q110" s="12"/>
     </row>
     <row r="111" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="Q111" s="15"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="Q111" s="12"/>
     </row>
     <row r="112" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="Q112" s="15"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="Q112" s="12"/>
     </row>
     <row r="113" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="Q113" s="15"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="Q113" s="12"/>
     </row>
     <row r="114" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="Q114" s="15"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="Q114" s="12"/>
     </row>
     <row r="115" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="Q115" s="15"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="Q115" s="12"/>
     </row>
     <row r="116" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="Q116" s="15"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="Q116" s="12"/>
     </row>
     <row r="117" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="Q117" s="15"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="Q117" s="12"/>
     </row>
     <row r="118" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="Q118" s="15"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="Q118" s="12"/>
     </row>
     <row r="119" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="Q119" s="15"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="Q119" s="12"/>
     </row>
     <row r="120" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="Q120" s="15"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="Q120" s="12"/>
     </row>
     <row r="121" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="Q121" s="15"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="Q121" s="12"/>
     </row>
     <row r="122" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="Q122" s="15"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="Q122" s="12"/>
     </row>
     <row r="123" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="Q123" s="15"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="Q123" s="12"/>
     </row>
     <row r="124" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="Q124" s="15"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="Q124" s="12"/>
     </row>
     <row r="125" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="Q125" s="15"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="Q125" s="12"/>
     </row>
     <row r="126" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="Q126" s="15"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="Q126" s="12"/>
     </row>
     <row r="127" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="Q127" s="15"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="Q127" s="12"/>
     </row>
     <row r="128" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="Q128" s="15"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="Q128" s="12"/>
     </row>
     <row r="129" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="Q129" s="15"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="Q129" s="12"/>
     </row>
     <row r="130" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="Q130" s="15"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="Q130" s="12"/>
     </row>
     <row r="131" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="Q131" s="15"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="Q131" s="12"/>
     </row>
     <row r="132" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="Q132" s="15"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="Q132" s="12"/>
     </row>
     <row r="133" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="Q133" s="15"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="Q133" s="12"/>
     </row>
     <row r="134" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="Q134" s="15"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="Q134" s="12"/>
     </row>
     <row r="135" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="Q135" s="15"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="Q135" s="12"/>
     </row>
     <row r="136" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="Q136" s="15"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="Q136" s="12"/>
     </row>
     <row r="137" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="Q137" s="15"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="Q137" s="12"/>
     </row>
     <row r="138" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="Q138" s="15"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="Q138" s="12"/>
     </row>
     <row r="139" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="Q139" s="15"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="Q139" s="12"/>
     </row>
     <row r="140" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="Q140" s="15"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="Q140" s="12"/>
     </row>
     <row r="141" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="Q141" s="15"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="Q141" s="12"/>
     </row>
     <row r="142" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="Q142" s="15"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="Q142" s="12"/>
     </row>
     <row r="143" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="Q143" s="15"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="Q143" s="12"/>
     </row>
     <row r="144" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="Q144" s="15"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="Q144" s="12"/>
     </row>
     <row r="145" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="Q145" s="15"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="Q145" s="12"/>
     </row>
     <row r="146" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="Q146" s="15"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="Q146" s="12"/>
     </row>
     <row r="147" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="Q147" s="15"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="Q147" s="12"/>
     </row>
     <row r="148" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="Q148" s="15"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="Q148" s="12"/>
     </row>
     <row r="149" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="Q149" s="15"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="Q149" s="12"/>
     </row>
     <row r="150" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="Q150" s="15"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="Q150" s="12"/>
     </row>
     <row r="151" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="Q151" s="15"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="Q151" s="12"/>
     </row>
     <row r="152" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="Q152" s="15"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="Q152" s="12"/>
     </row>
     <row r="153" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="Q153" s="15"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="Q153" s="12"/>
     </row>
     <row r="154" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="Q154" s="15"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="Q154" s="12"/>
     </row>
     <row r="155" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="Q155" s="15"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="Q155" s="12"/>
     </row>
     <row r="156" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="Q156" s="15"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="Q156" s="12"/>
     </row>
     <row r="157" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="Q157" s="15"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="Q157" s="12"/>
     </row>
     <row r="158" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="Q158" s="15"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="Q158" s="12"/>
     </row>
     <row r="159" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="Q159" s="15"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="Q159" s="12"/>
     </row>
     <row r="160" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="Q160" s="15"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="Q160" s="12"/>
     </row>
     <row r="161" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="Q161" s="15"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="Q161" s="12"/>
     </row>
     <row r="162" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="Q162" s="15"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="Q162" s="12"/>
     </row>
     <row r="163" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="Q163" s="15"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="Q163" s="12"/>
     </row>
     <row r="164" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="Q164" s="15"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="Q164" s="12"/>
     </row>
     <row r="165" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="Q165" s="15"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="Q165" s="12"/>
     </row>
     <row r="166" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="Q166" s="15"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="Q166" s="12"/>
     </row>
     <row r="167" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="Q167" s="15"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="Q167" s="12"/>
     </row>
     <row r="168" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="Q168" s="15"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="Q168" s="12"/>
     </row>
     <row r="169" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="Q169" s="15"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="Q169" s="12"/>
     </row>
     <row r="170" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="Q170" s="15"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="Q170" s="12"/>
     </row>
     <row r="171" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="Q171" s="15"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="Q171" s="12"/>
     </row>
     <row r="172" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="Q172" s="15"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="Q172" s="12"/>
     </row>
     <row r="173" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
-      <c r="K173" s="15"/>
-      <c r="Q173" s="15"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="Q173" s="12"/>
     </row>
     <row r="174" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="Q174" s="15"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="Q174" s="12"/>
     </row>
     <row r="175" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="Q175" s="15"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="Q175" s="12"/>
     </row>
     <row r="176" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="Q176" s="15"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="Q176" s="12"/>
     </row>
     <row r="177" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="Q177" s="15"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="Q177" s="12"/>
     </row>
     <row r="178" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="Q178" s="15"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="Q178" s="12"/>
     </row>
     <row r="179" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="Q179" s="15"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="Q179" s="12"/>
     </row>
     <row r="180" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="Q180" s="15"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="Q180" s="12"/>
     </row>
     <row r="181" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="Q181" s="15"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="Q181" s="12"/>
     </row>
     <row r="182" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="Q182" s="15"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="Q182" s="12"/>
     </row>
     <row r="183" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="Q183" s="15"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="Q183" s="12"/>
     </row>
     <row r="184" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="Q184" s="15"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="Q184" s="12"/>
     </row>
     <row r="185" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="Q185" s="15"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="Q185" s="12"/>
     </row>
     <row r="186" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="Q186" s="15"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="Q186" s="12"/>
     </row>
     <row r="187" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
-      <c r="K187" s="15"/>
-      <c r="Q187" s="15"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="Q187" s="12"/>
     </row>
     <row r="188" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
-      <c r="K188" s="15"/>
-      <c r="Q188" s="15"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="Q188" s="12"/>
     </row>
     <row r="189" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
-      <c r="K189" s="15"/>
-      <c r="Q189" s="15"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="Q189" s="12"/>
     </row>
     <row r="190" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H190" s="15"/>
-      <c r="I190" s="15"/>
-      <c r="K190" s="15"/>
-      <c r="Q190" s="15"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="Q190" s="12"/>
     </row>
     <row r="191" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H191" s="15"/>
-      <c r="I191" s="15"/>
-      <c r="K191" s="15"/>
-      <c r="Q191" s="15"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="Q191" s="12"/>
     </row>
     <row r="192" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H192" s="15"/>
-      <c r="I192" s="15"/>
-      <c r="K192" s="15"/>
-      <c r="Q192" s="15"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="Q192" s="12"/>
     </row>
     <row r="193" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H193" s="15"/>
-      <c r="I193" s="15"/>
-      <c r="K193" s="15"/>
-      <c r="Q193" s="15"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="Q193" s="12"/>
     </row>
     <row r="194" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="Q194" s="15"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="Q194" s="12"/>
     </row>
     <row r="195" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H195" s="15"/>
-      <c r="I195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="Q195" s="15"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="Q195" s="12"/>
     </row>
     <row r="196" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="Q196" s="15"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="Q196" s="12"/>
     </row>
     <row r="197" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H197" s="15"/>
-      <c r="I197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="Q197" s="15"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="Q197" s="12"/>
     </row>
     <row r="198" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H198" s="15"/>
-      <c r="I198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="Q198" s="15"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="Q198" s="12"/>
     </row>
     <row r="199" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="Q199" s="15"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="Q199" s="12"/>
     </row>
     <row r="200" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="Q200" s="15"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="Q200" s="12"/>
     </row>
     <row r="201" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H201" s="15"/>
-      <c r="I201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="Q201" s="15"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="Q201" s="12"/>
     </row>
     <row r="202" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H202" s="15"/>
-      <c r="I202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="Q202" s="15"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="Q202" s="12"/>
     </row>
     <row r="203" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H203" s="15"/>
-      <c r="I203" s="15"/>
-      <c r="K203" s="15"/>
-      <c r="Q203" s="15"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="Q203" s="12"/>
     </row>
     <row r="204" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H204" s="15"/>
-      <c r="I204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="Q204" s="15"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="Q204" s="12"/>
     </row>
     <row r="205" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H205" s="15"/>
-      <c r="I205" s="15"/>
-      <c r="K205" s="15"/>
-      <c r="Q205" s="15"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="Q205" s="12"/>
     </row>
     <row r="206" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H206" s="15"/>
-      <c r="I206" s="15"/>
-      <c r="K206" s="15"/>
-      <c r="Q206" s="15"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="Q206" s="12"/>
     </row>
     <row r="207" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H207" s="15"/>
-      <c r="I207" s="15"/>
-      <c r="K207" s="15"/>
-      <c r="Q207" s="15"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="Q207" s="12"/>
     </row>
     <row r="208" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H208" s="15"/>
-      <c r="I208" s="15"/>
-      <c r="K208" s="15"/>
-      <c r="Q208" s="15"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="Q208" s="12"/>
     </row>
     <row r="209" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H209" s="15"/>
-      <c r="I209" s="15"/>
-      <c r="K209" s="15"/>
-      <c r="Q209" s="15"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="Q209" s="12"/>
     </row>
     <row r="210" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H210" s="15"/>
-      <c r="I210" s="15"/>
-      <c r="K210" s="15"/>
-      <c r="Q210" s="15"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="Q210" s="12"/>
     </row>
     <row r="211" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H211" s="15"/>
-      <c r="I211" s="15"/>
-      <c r="K211" s="15"/>
-      <c r="Q211" s="15"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="Q211" s="12"/>
     </row>
     <row r="212" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H212" s="15"/>
-      <c r="I212" s="15"/>
-      <c r="K212" s="15"/>
-      <c r="Q212" s="15"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="Q212" s="12"/>
     </row>
     <row r="213" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H213" s="15"/>
-      <c r="I213" s="15"/>
-      <c r="K213" s="15"/>
-      <c r="Q213" s="15"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="Q213" s="12"/>
     </row>
     <row r="214" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H214" s="15"/>
-      <c r="I214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="Q214" s="15"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="Q214" s="12"/>
     </row>
     <row r="215" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H215" s="15"/>
-      <c r="I215" s="15"/>
-      <c r="K215" s="15"/>
-      <c r="Q215" s="15"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="Q215" s="12"/>
     </row>
     <row r="216" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H216" s="15"/>
-      <c r="I216" s="15"/>
-      <c r="K216" s="15"/>
-      <c r="Q216" s="15"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="Q216" s="12"/>
     </row>
     <row r="217" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H217" s="15"/>
-      <c r="I217" s="15"/>
-      <c r="K217" s="15"/>
-      <c r="Q217" s="15"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="Q217" s="12"/>
     </row>
     <row r="218" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H218" s="15"/>
-      <c r="I218" s="15"/>
-      <c r="K218" s="15"/>
-      <c r="Q218" s="15"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="Q218" s="12"/>
     </row>
     <row r="219" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H219" s="15"/>
-      <c r="I219" s="15"/>
-      <c r="K219" s="15"/>
-      <c r="Q219" s="15"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="K219" s="12"/>
+      <c r="Q219" s="12"/>
     </row>
     <row r="220" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H220" s="15"/>
-      <c r="I220" s="15"/>
-      <c r="Q220" s="15"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="Q220" s="12"/>
     </row>
     <row r="221" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H221" s="15"/>
-      <c r="I221" s="15"/>
-      <c r="Q221" s="15"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="Q221" s="12"/>
     </row>
     <row r="222" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H222" s="15"/>
+      <c r="H222" s="12"/>
     </row>
     <row r="223" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H223" s="15"/>
+      <c r="H223" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3348,7 +3372,7 @@
           <x14:formula1>
             <xm:f>Attribut_Values!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q221</xm:sqref>
+          <xm:sqref>Q3:Q221</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3381,7 +3405,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3389,37 +3413,37 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3427,37 +3451,37 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3465,31 +3489,31 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3497,19 +3521,19 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
@@ -3577,7 +3601,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,210 +3626,211 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="24"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="24"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="24"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="24"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="24"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="24"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="24"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="24"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="24"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="24"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
+      <c r="C20" s="18"/>
       <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-      <c r="D21" s="32" t="s">
-        <v>72</v>
+      <c r="C21" s="18"/>
+      <c r="D21" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="24"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="24"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="24"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="24"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="24"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="24"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="24"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="24"/>
+      <c r="C33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/import_template.xlsx
+++ b/public/import_template.xlsx
@@ -617,7 +617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>Model</t>
   </si>
@@ -635,12 +635,6 @@
   </si>
   <si>
     <t>Signal generators</t>
-  </si>
-  <si>
-    <t>Signal analysers</t>
-  </si>
-  <si>
-    <t>Network &amp; Spectrum analysers</t>
   </si>
   <si>
     <t>Oscilloscopes</t>
@@ -866,6 +860,15 @@
     <t>** High current amplitudes for 5 A relay testing
 ** High accuracy and versatility for testing static and numerical relays of all types
 ** Integrated network for testing IEC 61850 IEDs</t>
+  </si>
+  <si>
+    <t>Signal analyzers</t>
+  </si>
+  <si>
+    <t>Signal analzsers</t>
+  </si>
+  <si>
+    <t>Network &amp; Spectrum analyzers</t>
   </si>
 </sst>
 </file>
@@ -1108,15 +1111,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1160,6 +1154,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,148 +1657,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="L1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="W1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="30" t="s">
+      <c r="J2" s="29">
+        <v>15000</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="32">
-        <v>15000</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="32" t="s">
+      <c r="R2" s="29">
+        <v>2014</v>
+      </c>
+      <c r="S2" s="29">
+        <v>45600</v>
+      </c>
+      <c r="T2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="32">
-        <v>2014</v>
-      </c>
-      <c r="S2" s="32">
-        <v>45600</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="32">
+      <c r="U2" s="29">
         <v>450</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="29">
         <v>150</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="29">
         <v>390</v>
       </c>
-      <c r="X2" s="34">
+      <c r="X2" s="31">
         <v>16.8</v>
       </c>
     </row>
@@ -3385,7 +3388,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3401,11 +3404,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3413,167 +3416,167 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="33"/>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="33"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="3" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="3" t="s">
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="34"/>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="3" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="3" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="3" t="s">
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="34"/>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="3" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="3" t="s">
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="34"/>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16"/>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="33"/>
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -3601,7 +3604,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3617,217 +3620,217 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="18"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="15"/>
+      <c r="D10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="18"/>
-      <c r="D9" s="22" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="15"/>
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="18"/>
-      <c r="D10" s="22" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="D12" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="18"/>
-      <c r="D11" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="D12" s="22" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="17" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="15"/>
+      <c r="D15" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="18"/>
-      <c r="D14" s="17" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="15"/>
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="18"/>
-      <c r="D15" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="18"/>
-      <c r="D16" s="17" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="15"/>
+      <c r="D17" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="18"/>
-      <c r="D17" s="24" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
+      <c r="D18" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="15"/>
+      <c r="D19" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="18"/>
-      <c r="D18" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="18"/>
-      <c r="D19" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="18"/>
+      <c r="C20" s="15"/>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="18"/>
-      <c r="D21" s="26" t="s">
-        <v>71</v>
+      <c r="C21" s="15"/>
+      <c r="D21" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="18"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="18"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="18"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="18"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="18"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="18"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="18"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="18"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="18"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="18"/>
+      <c r="C33" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
